--- a/biology/Mycologie/Amanite_ovoïde/Amanite_ovoïde.xlsx
+++ b/biology/Mycologie/Amanite_ovoïde/Amanite_ovoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amanite_ovo%C3%AFde</t>
+          <t>Amanite_ovoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita ovoidea
 Amanita ovoidea, en français amanite ovoïde, parfois appelée oronge blanche, est une espèce de champignons basidiomycètes du genre Amanita dans la famille des Amanitacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amanite_ovo%C3%AFde</t>
+          <t>Amanite_ovoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hymenophore
-L'amanite ovoïde est un grand champignon à l'hyménophore (chapeau) épais et qui peut atteindre de grandes tailles (de 15 à 20 cm[1] jusqu'à 30 cm[2]). Il est de couleur blanche à grisâtre clair d'aspect floconneux, parfois recouvert de morceaux de voile[1],[2] Chez les spécimens jeunes, la cuticule est blanche et brillante[2].
-Les lamelles sont serrées et de couleur blanche[2]. En vieillissant, elles peuvent prendre une teinte un peu rosâtre[2].
-Stipe
-Le stipe (pied), de couleur blanche, est robuste et haut de 15 à 20 cm[1]. Il possède un anneau, fragile et crémeux, qui tend à disparaître[1],[2]. La marge est floconneuse
-La volve est de couleur beige jaune[1].
-Sporée
-La sporée est blanche[3].
+          <t>Hymenophore</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amanite ovoïde est un grand champignon à l'hyménophore (chapeau) épais et qui peut atteindre de grandes tailles (de 15 à 20 cm jusqu'à 30 cm). Il est de couleur blanche à grisâtre clair d'aspect floconneux, parfois recouvert de morceaux de voile, Chez les spécimens jeunes, la cuticule est blanche et brillante.
+Les lamelles sont serrées et de couleur blanche. En vieillissant, elles peuvent prendre une teinte un peu rosâtre.
 </t>
         </is>
       </c>
@@ -532,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amanite_ovo%C3%AFde</t>
+          <t>Amanite_ovoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce champignon vient sous les feuillus et surtout sous les pins des régions calcaires et ensoleillées à l'été et à l'automne[1],[2]. Il est assez fréquent en région méditerranéenne[2].
+          <t>Stipe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe (pied), de couleur blanche, est robuste et haut de 15 à 20 cm. Il possède un anneau, fragile et crémeux, qui tend à disparaître,. La marge est floconneuse
+La volve est de couleur beige jaune.
 </t>
         </is>
       </c>
@@ -563,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amanite_ovo%C3%AFde</t>
+          <t>Amanite_ovoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'amanite ovoïde est considérée comme un comestible médiocre[1].
+          <t>Sporée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sporée est blanche.
 </t>
         </is>
       </c>
@@ -594,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amanite_ovo%C3%AFde</t>
+          <t>Amanite_ovoïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +634,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Confusions possibles</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une confusion est possible avec Amanita proxima (Amanite à volve rousse ou amanite proche) qui est mortelle[1],[2].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon vient sous les feuillus et surtout sous les pins des régions calcaires et ensoleillées à l'été et à l'automne,. Il est assez fréquent en région méditerranéenne.
 </t>
         </is>
       </c>
@@ -625,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amanite_ovo%C3%AFde</t>
+          <t>Amanite_ovoïde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,10 +667,78 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amanite ovoïde est considérée comme un comestible médiocre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amanite_ovoïde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite_ovo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une confusion est possible avec Amanita proxima (Amanite à volve rousse ou amanite proche) qui est mortelle,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amanite_ovoïde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite_ovo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Référence taxonomique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence Index Fungorum : Amanita ovoidea </t>
         </is>
